--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF40F9-125B-4D85-B6A1-3C6B177B1F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" tabRatio="636"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资金分布" sheetId="1" r:id="rId1"/>
     <sheet name="菜谱" sheetId="3" r:id="rId2"/>
     <sheet name="历史盈利" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -341,21 +342,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,12 +631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N143" sqref="N143"/>
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,49 +650,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
@@ -703,14 +702,14 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -757,10 +756,10 @@
       <c r="A4" s="1">
         <v>43174</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4">
@@ -793,10 +792,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
@@ -807,7 +806,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6">
@@ -818,7 +817,7 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
@@ -826,10 +825,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5"/>
       <c r="E8">
         <v>1.4</v>
       </c>
@@ -838,7 +836,7 @@
       <c r="A9" s="1">
         <v>43175</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9">
@@ -882,7 +880,7 @@
       <c r="A11" s="1">
         <v>43176</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11">
@@ -945,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15">
@@ -956,7 +954,7 @@
       <c r="A16" s="1">
         <v>43179</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16">
@@ -989,7 +987,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E17">
@@ -1033,7 +1031,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E19">
@@ -1041,7 +1039,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20">
@@ -1085,7 +1083,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E22">
@@ -1129,7 +1127,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E24">
@@ -1137,10 +1135,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25">
@@ -1184,7 +1182,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E27">
@@ -1192,7 +1190,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D28">
@@ -2722,7 +2720,7 @@
         <v>90675.9</v>
       </c>
       <c r="N107">
-        <f t="shared" ref="N107:N143" si="10">SUM(G107:M107)</f>
+        <f t="shared" ref="N107:N144" si="10">SUM(G107:M107)</f>
         <v>95410.83</v>
       </c>
     </row>
@@ -2973,7 +2971,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D116">
@@ -3246,7 +3244,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D125">
@@ -3776,8 +3774,43 @@
         <v>73160.479999999996</v>
       </c>
     </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43525</v>
+      </c>
+      <c r="G144">
+        <v>9563.26</v>
+      </c>
+      <c r="H144">
+        <v>1564.65</v>
+      </c>
+      <c r="I144">
+        <v>105</v>
+      </c>
+      <c r="J144">
+        <v>-2995.8</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>642.45000000000005</v>
+      </c>
+      <c r="M144">
+        <v>64076.84</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="10"/>
+        <v>72956.399999999994</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -3785,11 +3818,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3818,7 +3846,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3829,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,15 +3870,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>43329</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B2">
@@ -3858,7 +3886,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B3">
@@ -3866,7 +3894,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B4">

--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF40F9-125B-4D85-B6A1-3C6B177B1F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1F021-633F-4D99-8A77-129B0A87CC58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2040" windowWidth="14025" windowHeight="7215" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资金分布" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,10 +650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -690,9 +690,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
@@ -702,14 +702,14 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3804,13 +3804,31 @@
         <v>72956.399999999994</v>
       </c>
     </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43543</v>
+      </c>
+      <c r="G145">
+        <v>8362.49</v>
+      </c>
+      <c r="H145">
+        <v>341.95</v>
+      </c>
+      <c r="I145">
+        <v>105</v>
+      </c>
+      <c r="J145">
+        <v>-1856.84</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>642.45000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -3818,6 +3836,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1F021-633F-4D99-8A77-129B0A87CC58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281DFC7-747F-4538-ADF5-7319D6ACF8AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="2040" windowWidth="14025" windowHeight="7215" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>日期</t>
   </si>
@@ -277,6 +277,10 @@
   <si>
     <t>炸猪/鸡排</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -348,13 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M145" sqref="M145"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,10 +654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -690,9 +694,9 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
@@ -702,14 +706,14 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2720,7 +2724,7 @@
         <v>90675.9</v>
       </c>
       <c r="N107">
-        <f t="shared" ref="N107:N144" si="10">SUM(G107:M107)</f>
+        <f t="shared" ref="N107:N146" si="10">SUM(G107:M107)</f>
         <v>95410.83</v>
       </c>
     </row>
@@ -3804,7 +3808,7 @@
         <v>72956.399999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43543</v>
       </c>
@@ -3826,9 +3830,57 @@
       <c r="L145">
         <v>642.45000000000005</v>
       </c>
+      <c r="M145">
+        <v>64380</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="10"/>
+        <v>71975.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146">
+        <v>-720</v>
+      </c>
+      <c r="G146">
+        <v>8366.39</v>
+      </c>
+      <c r="H146">
+        <v>341.95</v>
+      </c>
+      <c r="I146">
+        <v>105</v>
+      </c>
+      <c r="J146">
+        <v>-2771.04</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>642.45000000000005</v>
+      </c>
+      <c r="M146">
+        <v>64380</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="10"/>
+        <v>71064.75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
@@ -3836,11 +3888,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E281DFC7-747F-4538-ADF5-7319D6ACF8AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAAC996-2A83-49BA-B99F-B92CF8E7E020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2040" windowWidth="14025" windowHeight="7215" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资金分布" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>日期</t>
   </si>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,10 +658,10 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="10" max="11" width="9.375"/>
     <col min="13" max="13" width="10.375"/>
-    <col min="14" max="14" width="9.375"/>
+    <col min="15" max="15" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -689,11 +697,12 @@
       <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="8"/>
@@ -712,10 +721,15 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43173</v>
       </c>
@@ -751,12 +765,13 @@
       <c r="M3" s="3">
         <v>107650.7</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <f>SUM(G3:M3)</f>
         <v>118437.9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43174</v>
       </c>
@@ -790,12 +805,12 @@
       <c r="M4">
         <v>108289.7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <f>SUM(G4:M4)</f>
         <v>119010.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -806,7 +821,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -817,7 +832,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -828,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -836,7 +851,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43175</v>
       </c>
@@ -867,12 +882,12 @@
       <c r="M9">
         <v>107429.7</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f>SUM(G9:M9)</f>
         <v>118135.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -880,7 +895,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43176</v>
       </c>
@@ -891,7 +906,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -899,7 +914,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43177</v>
       </c>
@@ -910,7 +925,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43178</v>
       </c>
@@ -941,12 +956,12 @@
       <c r="M14">
         <v>108243.7</v>
       </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N18" si="0">SUM(G14:M14)</f>
+      <c r="O14">
+        <f t="shared" ref="O14:O18" si="0">SUM(G14:M14)</f>
         <v>118931.93</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -954,7 +969,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43179</v>
       </c>
@@ -985,12 +1000,12 @@
       <c r="M16">
         <v>107779.7</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>118447.31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43180</v>
       </c>
@@ -1029,12 +1044,12 @@
       <c r="M18">
         <v>108326.19</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="0"/>
         <v>118971.13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>-6.66</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43181</v>
       </c>
@@ -1081,12 +1096,12 @@
       <c r="M21">
         <v>105691.19</v>
       </c>
-      <c r="N21">
-        <f t="shared" ref="N21:N26" si="1">SUM(G21:M21)</f>
+      <c r="O21">
+        <f t="shared" ref="O21:O26" si="1">SUM(G21:M21)</f>
         <v>116322.05</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43182</v>
       </c>
@@ -1125,12 +1140,12 @@
       <c r="M23">
         <v>104218.19</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="1"/>
         <v>114794.57</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>-39.9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43183</v>
       </c>
@@ -1180,12 +1195,12 @@
       <c r="M26">
         <v>104218.19</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="1"/>
         <v>114769.59</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43184</v>
       </c>
@@ -1232,12 +1247,12 @@
       <c r="M29">
         <v>104218.19</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f>SUM(G29:M29)</f>
         <v>114587.84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>-594</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43185</v>
       </c>
@@ -1292,12 +1307,12 @@
       <c r="M33">
         <v>101147.19</v>
       </c>
-      <c r="N33">
-        <f t="shared" ref="N33:N38" si="2">SUM(G33:M33)</f>
+      <c r="O33">
+        <f t="shared" ref="O33:O38" si="2">SUM(G33:M33)</f>
         <v>111508.19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1305,7 +1320,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43186</v>
       </c>
@@ -1336,12 +1351,12 @@
       <c r="M35">
         <v>98649.19</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <f t="shared" si="2"/>
         <v>108949.78</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1364,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1372,7 @@
         <v>-49.9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43187</v>
       </c>
@@ -1388,12 +1403,12 @@
       <c r="M38">
         <v>95369.19</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <f t="shared" si="2"/>
         <v>105565.12</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43188</v>
       </c>
@@ -1440,12 +1455,12 @@
       <c r="M41">
         <v>103040.19</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <f>SUM(G41:M41)</f>
         <v>113190.8</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1468,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1476,7 @@
         <v>-32.659999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43189</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43190</v>
       </c>
@@ -1511,12 +1526,12 @@
       <c r="M46">
         <v>101463.19</v>
       </c>
-      <c r="N46">
-        <f t="shared" ref="N46:N51" si="3">SUM(G46:M46)</f>
+      <c r="O46">
+        <f t="shared" ref="O46:O51" si="3">SUM(G46:M46)</f>
         <v>111542.97</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>-33.5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43191</v>
       </c>
@@ -1563,12 +1578,12 @@
       <c r="M49">
         <v>101463.19</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <f t="shared" si="3"/>
         <v>111544.3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43192</v>
       </c>
@@ -1607,12 +1622,12 @@
       <c r="M51">
         <v>101053.19</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <f t="shared" si="3"/>
         <v>111118.63</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43193</v>
       </c>
@@ -1651,12 +1666,12 @@
       <c r="M53">
         <v>99659.19</v>
       </c>
-      <c r="N53">
-        <f t="shared" ref="N53:N57" si="4">SUM(G53:M53)</f>
+      <c r="O53">
+        <f t="shared" ref="O53:O57" si="4">SUM(G53:M53)</f>
         <v>109714.97</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43197</v>
       </c>
@@ -1695,12 +1710,12 @@
       <c r="M55">
         <v>99775.19</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <f t="shared" si="4"/>
         <v>109805.32</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43199</v>
       </c>
@@ -1739,12 +1754,12 @@
       <c r="M57">
         <v>97909.19</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <f t="shared" si="4"/>
         <v>107898.76000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>39</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43201</v>
       </c>
@@ -1791,12 +1806,12 @@
       <c r="M60">
         <v>103201.19</v>
       </c>
-      <c r="N60">
-        <f t="shared" ref="N60:N63" si="5">SUM(G60:M60)</f>
+      <c r="O60">
+        <f t="shared" ref="O60:O63" si="5">SUM(G60:M60)</f>
         <v>112086.38</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +1819,7 @@
         <v>-1073.5999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43202</v>
       </c>
@@ -1835,12 +1850,12 @@
       <c r="M62">
         <v>101979</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <f t="shared" si="5"/>
         <v>110848.28</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43203</v>
       </c>
@@ -1871,12 +1886,12 @@
       <c r="M63">
         <v>100997.19</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <f t="shared" si="5"/>
         <v>109672.44</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43207</v>
       </c>
@@ -1923,12 +1938,12 @@
       <c r="M66">
         <v>94749.19</v>
       </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N71" si="6">SUM(G66:M66)</f>
+      <c r="O66">
+        <f t="shared" ref="O66:O71" si="6">SUM(G66:M66)</f>
         <v>103281.81</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1951,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43208</v>
       </c>
@@ -1967,12 +1982,12 @@
       <c r="M68">
         <v>95837.19</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <f t="shared" si="6"/>
         <v>104284.5</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>44</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>-47.7</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>-10.7</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43213</v>
       </c>
@@ -2019,12 +2034,12 @@
       <c r="M71">
         <v>95686.19</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <f t="shared" si="6"/>
         <v>103930.58</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>45</v>
       </c>
@@ -2032,7 +2047,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>-122.9</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43214</v>
       </c>
@@ -2071,12 +2086,12 @@
       <c r="M74">
         <v>98830.19</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <f>SUM(G74:M74)</f>
         <v>106935.67</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>30</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43221</v>
       </c>
@@ -2115,12 +2130,12 @@
       <c r="M76">
         <v>96895.19</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <f>SUM(G76:M76)</f>
         <v>104166.92</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>35</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>47</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>-279</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>48</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>-32.9</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>49</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>50</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>51</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>-56.3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>34</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>-33.799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>52</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43222</v>
       </c>
@@ -2224,12 +2239,12 @@
       <c r="M86">
         <v>96177.19</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <f>SUM(G86:M86)</f>
         <v>104906.03</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>53</v>
       </c>
@@ -2237,7 +2252,7 @@
         <v>1508.11</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
@@ -2245,7 +2260,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43231</v>
       </c>
@@ -2276,12 +2291,12 @@
       <c r="M89">
         <v>98237.19</v>
       </c>
-      <c r="N89">
-        <f t="shared" ref="N89:N94" si="7">SUM(G89:M89)</f>
+      <c r="O89">
+        <f t="shared" ref="O89:O94" si="7">SUM(G89:M89)</f>
         <v>105573.53</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>727.05</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>57</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>40</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>-1073.5999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43235</v>
       </c>
@@ -2336,12 +2351,12 @@
       <c r="M93">
         <v>99315.19</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <f t="shared" si="7"/>
         <v>106592.01000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43237</v>
       </c>
@@ -2372,12 +2387,12 @@
       <c r="M94">
         <v>96993.19</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <f t="shared" si="7"/>
         <v>104055.48</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43240</v>
       </c>
@@ -2416,12 +2431,12 @@
       <c r="M96">
         <v>98205.19</v>
       </c>
-      <c r="N96">
-        <f t="shared" ref="N96:N100" si="8">SUM(G96:M96)</f>
+      <c r="O96">
+        <f t="shared" ref="O96:O100" si="8">SUM(G96:M96)</f>
         <v>105241.33</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43241</v>
       </c>
@@ -2452,12 +2467,12 @@
       <c r="M97">
         <v>98728.19</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <f t="shared" si="8"/>
         <v>105747.05</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43254</v>
       </c>
@@ -2482,12 +2497,12 @@
       <c r="M98">
         <v>96687.19</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <f t="shared" si="8"/>
         <v>103305.13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43257</v>
       </c>
@@ -2512,12 +2527,12 @@
       <c r="M99">
         <v>97547.59</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <f t="shared" si="8"/>
         <v>104130.95999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43259</v>
       </c>
@@ -2545,12 +2560,12 @@
       <c r="M100">
         <v>97539.59</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <f t="shared" si="8"/>
         <v>103892.68</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43269</v>
       </c>
@@ -2589,12 +2604,12 @@
       <c r="M102">
         <v>99480.59</v>
       </c>
-      <c r="N102">
-        <f t="shared" ref="N102:N105" si="9">SUM(G102:M102)</f>
+      <c r="O102">
+        <f t="shared" ref="O102:O105" si="9">SUM(G102:M102)</f>
         <v>104456.87999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43272</v>
       </c>
@@ -2619,12 +2634,12 @@
       <c r="M103">
         <v>98192.9</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <f t="shared" si="9"/>
         <v>103117.64</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43276</v>
       </c>
@@ -2649,12 +2664,12 @@
       <c r="M104">
         <v>97604.9</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <f t="shared" si="9"/>
         <v>102399.86</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43277</v>
       </c>
@@ -2685,12 +2700,12 @@
       <c r="M105">
         <v>94710.9</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <f t="shared" si="9"/>
         <v>99476.29</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43279</v>
       </c>
@@ -2723,12 +2738,12 @@
       <c r="M107">
         <v>90675.9</v>
       </c>
-      <c r="N107">
-        <f t="shared" ref="N107:N146" si="10">SUM(G107:M107)</f>
+      <c r="O107">
+        <f t="shared" ref="O107:O146" si="10">SUM(G107:M107)</f>
         <v>95410.83</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43293</v>
       </c>
@@ -2753,12 +2768,12 @@
       <c r="M108">
         <v>93450.9</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <f t="shared" si="10"/>
         <v>96502.439999999988</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43304</v>
       </c>
@@ -2783,12 +2798,12 @@
       <c r="M109">
         <v>94957.09</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <f t="shared" si="10"/>
         <v>97577.81</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43305</v>
       </c>
@@ -2813,12 +2828,12 @@
       <c r="M110">
         <v>94836.46</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <f t="shared" si="10"/>
         <v>97442.390000000014</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43308</v>
       </c>
@@ -2843,12 +2858,12 @@
       <c r="M111">
         <v>93562.55</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <f t="shared" si="10"/>
         <v>96132.32</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43312</v>
       </c>
@@ -2873,12 +2888,12 @@
       <c r="M112">
         <v>95949.02</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <f t="shared" si="10"/>
         <v>98478.03</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43313</v>
       </c>
@@ -2903,12 +2918,12 @@
       <c r="M113">
         <v>93395.39</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <f t="shared" si="10"/>
         <v>95910.09</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43316</v>
       </c>
@@ -2933,12 +2948,12 @@
       <c r="M114">
         <v>90814.13</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <f t="shared" si="10"/>
         <v>93256.75</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43319</v>
       </c>
@@ -2969,12 +2984,12 @@
       <c r="M115">
         <v>94880.61</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <f t="shared" si="10"/>
         <v>95952.6</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
         <v>69</v>
       </c>
@@ -2982,7 +2997,7 @@
         <v>-1147</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43321</v>
       </c>
@@ -3007,12 +3022,12 @@
       <c r="M117">
         <v>94550.34</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <f t="shared" si="10"/>
         <v>95592.62999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43329</v>
       </c>
@@ -3037,12 +3052,12 @@
       <c r="M118">
         <v>82946.38</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <f t="shared" si="10"/>
         <v>87583.97</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43332</v>
       </c>
@@ -3067,12 +3082,12 @@
       <c r="M119">
         <v>72946.38</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <f t="shared" si="10"/>
         <v>87559.930000000008</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43333</v>
       </c>
@@ -3103,12 +3118,12 @@
       <c r="M120">
         <v>72946.38</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <f t="shared" si="10"/>
         <v>87368.86</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43335</v>
       </c>
@@ -3139,12 +3154,12 @@
       <c r="M121">
         <v>72834.13</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <f t="shared" si="10"/>
         <v>86490.62000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43338</v>
       </c>
@@ -3169,12 +3184,12 @@
       <c r="M122">
         <v>72847.67</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <f t="shared" si="10"/>
         <v>86470.56</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43346</v>
       </c>
@@ -3206,12 +3221,12 @@
       <c r="M123">
         <v>72915.38</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <f t="shared" si="10"/>
         <v>82335.23000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43351</v>
       </c>
@@ -3242,12 +3257,12 @@
       <c r="M124">
         <v>72945</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <f t="shared" si="10"/>
         <v>80874.55</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
         <v>69</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>-1147</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43354</v>
       </c>
@@ -3280,12 +3295,12 @@
       <c r="M126">
         <v>72965.03</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <f t="shared" si="10"/>
         <v>80839.360000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43355</v>
       </c>
@@ -3310,12 +3325,12 @@
       <c r="M127">
         <v>72973.210000000006</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <f t="shared" si="10"/>
         <v>80835.670000000013</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43358</v>
       </c>
@@ -3340,12 +3355,12 @@
       <c r="M128">
         <v>72986.67</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <f t="shared" si="10"/>
         <v>80724.2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43368</v>
       </c>
@@ -3356,7 +3371,7 @@
         <v>-190</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43375</v>
       </c>
@@ -3387,12 +3402,12 @@
       <c r="M130">
         <v>73166.09</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <f t="shared" si="10"/>
         <v>80693.06</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43377</v>
       </c>
@@ -3417,12 +3432,12 @@
       <c r="M131">
         <v>73166.09</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <f t="shared" si="10"/>
         <v>80347.12</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43387</v>
       </c>
@@ -3453,12 +3468,12 @@
       <c r="M132">
         <v>73203.78</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <f t="shared" si="10"/>
         <v>77961.91</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43394</v>
       </c>
@@ -3483,12 +3498,12 @@
       <c r="M133">
         <v>73246.303</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <f t="shared" si="10"/>
         <v>77754.733000000007</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43402</v>
       </c>
@@ -3513,12 +3528,12 @@
       <c r="M134">
         <v>73329.31</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <f t="shared" si="10"/>
         <v>77625.52</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43408</v>
       </c>
@@ -3549,12 +3564,12 @@
       <c r="M135">
         <v>73375.3</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <f t="shared" si="10"/>
         <v>77206.400000000009</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43415</v>
       </c>
@@ -3585,12 +3600,12 @@
       <c r="M136">
         <v>73426.44</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <f t="shared" si="10"/>
         <v>74805.73</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
         <v>75</v>
       </c>
@@ -3598,7 +3613,7 @@
         <v>-1137.8699999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43424</v>
       </c>
@@ -3623,12 +3638,12 @@
       <c r="M138">
         <v>73496.81</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <f t="shared" si="10"/>
         <v>74406.759999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43438</v>
       </c>
@@ -3653,12 +3668,12 @@
       <c r="M139">
         <v>63588.57</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <f t="shared" si="10"/>
         <v>74034.8</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43457</v>
       </c>
@@ -3683,12 +3698,12 @@
       <c r="M140">
         <v>63709</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <f t="shared" si="10"/>
         <v>70561.47</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43469</v>
       </c>
@@ -3713,12 +3728,12 @@
       <c r="M141">
         <v>63824.85</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <f t="shared" si="10"/>
         <v>70487.649999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43493</v>
       </c>
@@ -3743,12 +3758,12 @@
       <c r="M142">
         <v>63929.7</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <f t="shared" si="10"/>
         <v>77054.720000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43521</v>
       </c>
@@ -3773,12 +3788,12 @@
       <c r="M143">
         <v>64063.21</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <f t="shared" si="10"/>
         <v>73160.479999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43525</v>
       </c>
@@ -3803,12 +3818,12 @@
       <c r="M144">
         <v>64076.84</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <f t="shared" si="10"/>
         <v>72956.399999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43543</v>
       </c>
@@ -3833,12 +3848,12 @@
       <c r="M145">
         <v>64380</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <f t="shared" si="10"/>
         <v>71975.05</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43550</v>
       </c>
@@ -3869,9 +3884,75 @@
       <c r="M146">
         <v>64380</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <f t="shared" si="10"/>
         <v>71064.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43553</v>
+      </c>
+      <c r="G147">
+        <v>8368.07</v>
+      </c>
+      <c r="H147">
+        <v>341.95</v>
+      </c>
+      <c r="I147">
+        <v>105</v>
+      </c>
+      <c r="J147">
+        <v>-2932.74</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>642.45000000000005</v>
+      </c>
+      <c r="M147">
+        <v>66591</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f>SUM(G147:N147)</f>
+        <v>73115.73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43566</v>
+      </c>
+      <c r="G148">
+        <v>3992.6</v>
+      </c>
+      <c r="H148">
+        <v>195.14</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+      <c r="J148">
+        <v>-976</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>447.45</v>
+      </c>
+      <c r="M148">
+        <v>66646.289999999994</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f>SUM(G148:N148)</f>
+        <v>70405.48</v>
       </c>
     </row>
   </sheetData>
@@ -3881,13 +3962,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3928,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B2:B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3939,23 +4020,29 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="5">
         <v>43329</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B2">
         <v>7120</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>2428.4299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -3963,7 +4050,7 @@
         <v>-5064</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>

--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAAC996-2A83-49BA-B99F-B92CF8E7E020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2784D-8719-4C32-BDB2-8731303C8D58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O149" sqref="O149"/>
+      <selection pane="bottomLeft" activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,6 +3953,105 @@
       <c r="O148">
         <f>SUM(G148:N148)</f>
         <v>70405.48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43574</v>
+      </c>
+      <c r="G149">
+        <v>4094.89</v>
+      </c>
+      <c r="H149">
+        <v>398.84</v>
+      </c>
+      <c r="I149">
+        <v>100</v>
+      </c>
+      <c r="J149">
+        <v>-1093.24</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>447.45</v>
+      </c>
+      <c r="M149">
+        <v>66688.34</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <f>SUM(G149:N149)</f>
+        <v>70636.28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43591</v>
+      </c>
+      <c r="G150">
+        <v>3099</v>
+      </c>
+      <c r="H150">
+        <v>1338.84</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>-2112</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>447.45</v>
+      </c>
+      <c r="M150">
+        <v>66745</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f>SUM(G150:N150)</f>
+        <v>69618.289999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43614</v>
+      </c>
+      <c r="G151">
+        <v>6810.49</v>
+      </c>
+      <c r="H151">
+        <v>191</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+      <c r="J151">
+        <v>-1234.32</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>447.45</v>
+      </c>
+      <c r="M151">
+        <v>59382.76</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f>SUM(G151:N151)</f>
+        <v>65697.38</v>
       </c>
     </row>
   </sheetData>
@@ -4009,10 +4108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4020,7 +4119,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -4030,8 +4129,11 @@
       <c r="C1" s="5">
         <v>43553</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +4144,7 @@
         <v>2428.4299999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -4050,12 +4152,15 @@
         <v>-5064</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B4">
         <v>-1383</v>
+      </c>
+      <c r="D4">
+        <v>-2470.34</v>
       </c>
     </row>
   </sheetData>

--- a/股市交易记录.xlsx
+++ b/股市交易记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ife2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2784D-8719-4C32-BDB2-8731303C8D58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DD968-3AD4-45EA-8423-B2D2A2D8A601}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,13 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M151" sqref="M151"/>
+      <selection pane="bottomLeft" activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,10 +662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -703,9 +703,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
@@ -715,19 +715,19 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -4054,13 +4054,41 @@
         <v>65697.38</v>
       </c>
     </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43626</v>
+      </c>
+      <c r="G152">
+        <v>4256.7700000000004</v>
+      </c>
+      <c r="H152">
+        <v>364.74</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>-565.5</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>447.45</v>
+      </c>
+      <c r="M152">
+        <v>59421.37</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f>SUM(G152:N152)</f>
+        <v>64024.83</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4068,6 +4096,11 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
